--- a/users.xlsx
+++ b/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,7 +410,7 @@
         <v>user_id</v>
       </c>
       <c r="C1" t="str">
-        <v>username</v>
+        <v>tg_username</v>
       </c>
       <c r="D1" t="str">
         <v>fullName</v>
@@ -815,9 +815,291 @@
         <v>asd</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="str">
+        <v>788109879</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Sanjar</v>
+      </c>
+      <c r="E23" t="str">
+        <v>1999.05.07</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Mega</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="str">
+        <v>385117509</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Ali</v>
+      </c>
+      <c r="E24" t="str">
+        <v>1may</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Mega</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="str">
+        <v>385117509</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Sanjar</v>
+      </c>
+      <c r="E25" t="str">
+        <v>7may</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Yunus</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="str">
+        <v>788109879</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Ab</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Ba</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Ha</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="str">
+        <v>788109879</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Gh</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Hsh</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Hhs</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="str">
+        <v>788109879</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Naja</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Baa</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Abha</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="str">
+        <v>788109879</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Sbbs</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Aa</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Hh</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="str">
+        <v>788109879</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Hshs</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Hshs</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Hsh</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="str">
+        <v>788109879</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Hshs</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Hw</v>
+      </c>
+      <c r="F31" t="str">
+        <v>998938478377</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Hw</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="str">
+        <v>788109879</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Aaaa</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Tttt</v>
+      </c>
+      <c r="F32" t="str">
+        <v>998938478377</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Mmmm</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="str">
+        <v>788109879</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Aaaa</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Tttt</v>
+      </c>
+      <c r="F33" t="str">
+        <v>998938478377</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Mmmm</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="str">
+        <v>788109879</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Dddf</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Hhhj</v>
+      </c>
+      <c r="F34" t="str">
+        <v>998938478377</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Mkllk</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="str">
+        <v>788109879</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Men</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Sen</v>
+      </c>
+      <c r="F35" t="str">
+        <v>998938478377</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Ular</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="str">
+        <v>788109879</v>
+      </c>
+      <c r="C36" t="str">
+        <v>sanjar_aybekov</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Salom</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Ha</v>
+      </c>
+      <c r="F36" t="str">
+        <v>998938478377</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Shu</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="str">
+        <v>385117509</v>
+      </c>
+      <c r="C37" t="str">
+        <v>@Alibek1530</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Ali</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Birkunda</v>
+      </c>
+      <c r="F37" t="str">
+        <v>998937121530</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Mega</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I37"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/users.xlsx
+++ b/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -438,17 +438,20 @@
       <c r="B2" t="str">
         <v>788109879</v>
       </c>
+      <c r="C2" t="str">
+        <v>@sanjaraybekov</v>
+      </c>
       <c r="D2" t="str">
-        <v>kh</v>
+        <v>Sanajr</v>
       </c>
       <c r="E2" t="str">
-        <v>j</v>
+        <v>Jsj</v>
       </c>
       <c r="F2" t="str">
-        <v>+998938478377</v>
+        <v>998938478377</v>
       </c>
       <c r="G2" t="str">
-        <v>lk</v>
+        <v>Hwhw</v>
       </c>
     </row>
     <row r="3">
@@ -459,47 +462,24 @@
         <v>788109879</v>
       </c>
       <c r="C3" t="str">
-        <v>@sanjar_aybekov</v>
+        <v>@sanjaraybekov</v>
       </c>
       <c r="D3" t="str">
-        <v>asd</v>
+        <v>What</v>
       </c>
       <c r="E3" t="str">
-        <v>asd</v>
+        <v>Are</v>
       </c>
       <c r="F3" t="str">
-        <v>+998938478377</v>
+        <v>998938478377</v>
       </c>
       <c r="G3" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>788109879</v>
-      </c>
-      <c r="C4" t="str">
-        <v>@sanjar_aybekov</v>
-      </c>
-      <c r="D4" t="str">
-        <v>a</v>
-      </c>
-      <c r="E4" t="str">
-        <v>b</v>
-      </c>
-      <c r="F4" t="str">
-        <v>+998938478377</v>
-      </c>
-      <c r="G4" t="str">
-        <v>c</v>
+        <v>You</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
   </ignoredErrors>
 </worksheet>
 </file>